--- a/TravaAltaPut.xlsx
+++ b/TravaAltaPut.xlsx
@@ -434,33 +434,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Ativo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Strike</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>bid</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ask</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Last</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr"/>
+      <c r="H1" s="1" t="inlineStr"/>
+      <c r="I1" s="1" t="inlineStr"/>
+      <c r="J1" s="1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -468,20 +470,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PETR4</t>
+          <t>IRBR3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>28.75</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>28.76</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>28.75</v>
+        <v>6.1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -502,20 +504,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PETRS290</t>
+          <t>IRBRT500</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28.21</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.78</v>
+        <v>0.1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.77</v>
+        <v>0.1</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -536,20 +538,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PETRS297</t>
+          <t>IRBRT600</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28.96</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.11</v>
+        <v>0.26</v>
       </c>
       <c r="E4" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.12</v>
+        <v>0.28</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -574,7 +576,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -604,11 +606,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lucro Max</t>
+          <t>Val.Recebido/Lucro</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -642,7 +644,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4199999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>

--- a/TravaAltaPut.xlsx
+++ b/TravaAltaPut.xlsx
@@ -470,7 +470,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IRBR3</t>
+          <t>BBSE3</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.1</v>
+        <v>25.43</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -504,20 +504,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IRBRT500</t>
+          <t>BBSET225</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>22.5</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1</v>
+        <v>0.17</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -538,20 +538,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>IRBRT600</t>
+          <t>BBSET230</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -610,7 +610,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.16</v>
+        <v>0.03</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.84</v>
+        <v>0.47</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
